--- a/team_specific_matrix/UIW_B.xlsx
+++ b/team_specific_matrix/UIW_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1854545454545455</v>
+        <v>0.2033898305084746</v>
       </c>
       <c r="C2">
-        <v>0.5709090909090909</v>
+        <v>0.53954802259887</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.003636363636363636</v>
+        <v>0.002824858757062147</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1418181818181818</v>
+        <v>0.1525423728813559</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09818181818181818</v>
+        <v>0.1016949152542373</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.006211180124223602</v>
+        <v>0.005154639175257732</v>
       </c>
       <c r="C3">
-        <v>0.006211180124223602</v>
+        <v>0.005154639175257732</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03105590062111801</v>
+        <v>0.02577319587628866</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7204968944099379</v>
+        <v>0.7422680412371134</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2360248447204969</v>
+        <v>0.2216494845360825</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.08108108108108109</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7027027027027027</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2162162162162162</v>
+        <v>0.1818181818181818</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04069767441860465</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01162790697674419</v>
+        <v>0.009803921568627451</v>
       </c>
       <c r="E6">
-        <v>0.005813953488372093</v>
+        <v>0.004901960784313725</v>
       </c>
       <c r="F6">
-        <v>0.05232558139534884</v>
+        <v>0.04901960784313725</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3023255813953488</v>
+        <v>0.3137254901960784</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.03488372093023256</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1802325581395349</v>
+        <v>0.1617647058823529</v>
       </c>
       <c r="R6">
-        <v>0.05232558139534884</v>
+        <v>0.05392156862745098</v>
       </c>
       <c r="S6">
-        <v>0.3197674418604651</v>
+        <v>0.3186274509803921</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1736526946107785</v>
+        <v>0.1469194312796208</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.005988023952095809</v>
+        <v>0.004739336492890996</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.02994011976047904</v>
+        <v>0.03317535545023697</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1317365269461078</v>
+        <v>0.1279620853080569</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01796407185628742</v>
+        <v>0.01421800947867299</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1497005988023952</v>
+        <v>0.1943127962085308</v>
       </c>
       <c r="R7">
-        <v>0.0718562874251497</v>
+        <v>0.07109004739336493</v>
       </c>
       <c r="S7">
-        <v>0.4191616766467066</v>
+        <v>0.4075829383886256</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09602649006622517</v>
+        <v>0.1071428571428571</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01324503311258278</v>
+        <v>0.01275510204081633</v>
       </c>
       <c r="E8">
-        <v>0.003311258278145695</v>
+        <v>0.00510204081632653</v>
       </c>
       <c r="F8">
-        <v>0.04966887417218543</v>
+        <v>0.04591836734693878</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1225165562913907</v>
+        <v>0.1147959183673469</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01655629139072848</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2516556291390729</v>
+        <v>0.2295918367346939</v>
       </c>
       <c r="R8">
-        <v>0.07947019867549669</v>
+        <v>0.08928571428571429</v>
       </c>
       <c r="S8">
-        <v>0.3675496688741722</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1273885350318471</v>
+        <v>0.1347150259067358</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02547770700636943</v>
+        <v>0.02072538860103627</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.05732484076433121</v>
+        <v>0.06735751295336788</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1464968152866242</v>
+        <v>0.1295336787564767</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01273885350318471</v>
+        <v>0.01036269430051814</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2038216560509554</v>
+        <v>0.1865284974093264</v>
       </c>
       <c r="R9">
-        <v>0.08917197452229299</v>
+        <v>0.08290155440414508</v>
       </c>
       <c r="S9">
-        <v>0.3375796178343949</v>
+        <v>0.3678756476683938</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1335914811229429</v>
+        <v>0.1315175097276265</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02516940948693127</v>
+        <v>0.02490272373540856</v>
       </c>
       <c r="E10">
-        <v>0.000968054211035818</v>
+        <v>0.0007782101167315176</v>
       </c>
       <c r="F10">
-        <v>0.06001936108422071</v>
+        <v>0.05603112840466926</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1229428848015489</v>
+        <v>0.1175097276264591</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01258470474346563</v>
+        <v>0.01245136186770428</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2226524685382381</v>
+        <v>0.2093385214007782</v>
       </c>
       <c r="R10">
-        <v>0.07163601161665054</v>
+        <v>0.07859922178988327</v>
       </c>
       <c r="S10">
-        <v>0.3504356243949661</v>
+        <v>0.3688715953307393</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1526104417670683</v>
+        <v>0.1451612903225807</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.06827309236947791</v>
+        <v>0.07419354838709677</v>
       </c>
       <c r="K11">
-        <v>0.21285140562249</v>
+        <v>0.2096774193548387</v>
       </c>
       <c r="L11">
-        <v>0.5381526104417671</v>
+        <v>0.5451612903225806</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02811244979919679</v>
+        <v>0.02580645161290323</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7272727272727273</v>
+        <v>0.7348066298342542</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1748251748251748</v>
+        <v>0.1602209944751381</v>
       </c>
       <c r="K12">
-        <v>0.02097902097902098</v>
+        <v>0.01657458563535912</v>
       </c>
       <c r="L12">
-        <v>0.06293706293706294</v>
+        <v>0.06629834254143646</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.01398601398601399</v>
+        <v>0.02209944751381215</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7894736842105263</v>
+        <v>0.8085106382978723</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2105263157894737</v>
+        <v>0.1914893617021277</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.0303030303030303</v>
+        <v>0.02926829268292683</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1212121212121212</v>
+        <v>0.1268292682926829</v>
       </c>
       <c r="I15">
-        <v>0.07272727272727272</v>
+        <v>0.06829268292682927</v>
       </c>
       <c r="J15">
-        <v>0.3212121212121212</v>
+        <v>0.3463414634146341</v>
       </c>
       <c r="K15">
-        <v>0.07878787878787878</v>
+        <v>0.06341463414634146</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01212121212121212</v>
+        <v>0.00975609756097561</v>
       </c>
       <c r="N15">
-        <v>0.006060606060606061</v>
+        <v>0.004878048780487805</v>
       </c>
       <c r="O15">
-        <v>0.07878787878787878</v>
+        <v>0.08780487804878048</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2787878787878788</v>
+        <v>0.2634146341463415</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.0449438202247191</v>
+        <v>0.05286343612334802</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1292134831460674</v>
+        <v>0.1277533039647577</v>
       </c>
       <c r="I16">
-        <v>0.1235955056179775</v>
+        <v>0.1277533039647577</v>
       </c>
       <c r="J16">
-        <v>0.4719101123595505</v>
+        <v>0.4361233480176211</v>
       </c>
       <c r="K16">
-        <v>0.08426966292134831</v>
+        <v>0.0881057268722467</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.03932584269662921</v>
+        <v>0.03083700440528634</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.02247191011235955</v>
+        <v>0.02643171806167401</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.08426966292134831</v>
+        <v>0.1101321585903084</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02061855670103093</v>
+        <v>0.01943844492440605</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1365979381443299</v>
+        <v>0.142548596112311</v>
       </c>
       <c r="I17">
-        <v>0.08247422680412371</v>
+        <v>0.0734341252699784</v>
       </c>
       <c r="J17">
-        <v>0.4510309278350516</v>
+        <v>0.4514038876889849</v>
       </c>
       <c r="K17">
-        <v>0.1082474226804124</v>
+        <v>0.09719222462203024</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02061855670103093</v>
+        <v>0.02591792656587473</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.04896907216494845</v>
+        <v>0.05399568034557235</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1314432989690722</v>
+        <v>0.1360691144708423</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02272727272727273</v>
+        <v>0.01704545454545454</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1363636363636364</v>
+        <v>0.1590909090909091</v>
       </c>
       <c r="I18">
-        <v>0.07575757575757576</v>
+        <v>0.06818181818181818</v>
       </c>
       <c r="J18">
-        <v>0.4848484848484849</v>
+        <v>0.4602272727272727</v>
       </c>
       <c r="K18">
-        <v>0.09848484848484848</v>
+        <v>0.1022727272727273</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.007575757575757576</v>
+        <v>0.01136363636363636</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.08333333333333333</v>
+        <v>0.07386363636363637</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.09090909090909091</v>
+        <v>0.1079545454545455</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.029723991507431</v>
+        <v>0.02625102543068089</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1985138004246285</v>
+        <v>0.2001640689089418</v>
       </c>
       <c r="I19">
-        <v>0.08598726114649681</v>
+        <v>0.08531583264971287</v>
       </c>
       <c r="J19">
-        <v>0.3715498938428874</v>
+        <v>0.3748974569319114</v>
       </c>
       <c r="K19">
-        <v>0.113588110403397</v>
+        <v>0.1148482362592289</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02123142250530785</v>
+        <v>0.01968826907301066</v>
       </c>
       <c r="N19">
-        <v>0.001061571125265393</v>
+        <v>0.0008203445447087777</v>
       </c>
       <c r="O19">
-        <v>0.07537154989384288</v>
+        <v>0.06808859721082855</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1029723991507431</v>
+        <v>0.1099261689909762</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/UIW_B.xlsx
+++ b/team_specific_matrix/UIW_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2033898305084746</v>
+        <v>0.2044887780548628</v>
       </c>
       <c r="C2">
-        <v>0.53954802259887</v>
+        <v>0.5461346633416458</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.002824858757062147</v>
+        <v>0.002493765586034913</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1525423728813559</v>
+        <v>0.1471321695760598</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1016949152542373</v>
+        <v>0.09975062344139651</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.005154639175257732</v>
+        <v>0.004504504504504504</v>
       </c>
       <c r="C3">
-        <v>0.005154639175257732</v>
+        <v>0.004504504504504504</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02577319587628866</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7422680412371134</v>
+        <v>0.7342342342342343</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2216494845360825</v>
+        <v>0.2297297297297297</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.09090909090909091</v>
+        <v>0.08</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7272727272727273</v>
+        <v>0.72</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1818181818181818</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05882352941176471</v>
+        <v>0.06018518518518518</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.009803921568627451</v>
+        <v>0.01388888888888889</v>
       </c>
       <c r="E6">
-        <v>0.004901960784313725</v>
+        <v>0.004629629629629629</v>
       </c>
       <c r="F6">
-        <v>0.04901960784313725</v>
+        <v>0.04629629629629629</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3137254901960784</v>
+        <v>0.3055555555555556</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02941176470588235</v>
+        <v>0.03240740740740741</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1617647058823529</v>
+        <v>0.162037037037037</v>
       </c>
       <c r="R6">
-        <v>0.05392156862745098</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="S6">
-        <v>0.3186274509803921</v>
+        <v>0.3194444444444444</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1469194312796208</v>
+        <v>0.1525423728813559</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.004739336492890996</v>
+        <v>0.00423728813559322</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.03317535545023697</v>
+        <v>0.02966101694915254</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1279620853080569</v>
+        <v>0.1313559322033898</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01421800947867299</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1943127962085308</v>
+        <v>0.1949152542372881</v>
       </c>
       <c r="R7">
-        <v>0.07109004739336493</v>
+        <v>0.06779661016949153</v>
       </c>
       <c r="S7">
-        <v>0.4075829383886256</v>
+        <v>0.4025423728813559</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1071428571428571</v>
+        <v>0.1201814058956916</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01275510204081633</v>
+        <v>0.01360544217687075</v>
       </c>
       <c r="E8">
-        <v>0.00510204081632653</v>
+        <v>0.006802721088435374</v>
       </c>
       <c r="F8">
-        <v>0.04591836734693878</v>
+        <v>0.04308390022675737</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1147959183673469</v>
+        <v>0.1156462585034014</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -897,13 +897,13 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2295918367346939</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="R8">
-        <v>0.08928571428571429</v>
+        <v>0.09070294784580499</v>
       </c>
       <c r="S8">
-        <v>0.375</v>
+        <v>0.3673469387755102</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1347150259067358</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02072538860103627</v>
+        <v>0.02314814814814815</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.06735751295336788</v>
+        <v>0.06018518518518518</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1295336787564767</v>
+        <v>0.125</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01036269430051814</v>
+        <v>0.01388888888888889</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1865284974093264</v>
+        <v>0.1944444444444444</v>
       </c>
       <c r="R9">
-        <v>0.08290155440414508</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="S9">
-        <v>0.3678756476683938</v>
+        <v>0.3611111111111111</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1315175097276265</v>
+        <v>0.1277932960893855</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02490272373540856</v>
+        <v>0.0244413407821229</v>
       </c>
       <c r="E10">
-        <v>0.0007782101167315176</v>
+        <v>0.0006983240223463687</v>
       </c>
       <c r="F10">
-        <v>0.05603112840466926</v>
+        <v>0.05446927374301676</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1175097276264591</v>
+        <v>0.1215083798882682</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01245136186770428</v>
+        <v>0.0111731843575419</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2093385214007782</v>
+        <v>0.2129888268156425</v>
       </c>
       <c r="R10">
-        <v>0.07859922178988327</v>
+        <v>0.08310055865921788</v>
       </c>
       <c r="S10">
-        <v>0.3688715953307393</v>
+        <v>0.3638268156424581</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1451612903225807</v>
+        <v>0.1457725947521866</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07419354838709677</v>
+        <v>0.07580174927113703</v>
       </c>
       <c r="K11">
-        <v>0.2096774193548387</v>
+        <v>0.2128279883381924</v>
       </c>
       <c r="L11">
-        <v>0.5451612903225806</v>
+        <v>0.5393586005830904</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02580645161290323</v>
+        <v>0.02623906705539359</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7348066298342542</v>
+        <v>0.7323232323232324</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1602209944751381</v>
+        <v>0.1565656565656566</v>
       </c>
       <c r="K12">
-        <v>0.01657458563535912</v>
+        <v>0.0202020202020202</v>
       </c>
       <c r="L12">
-        <v>0.06629834254143646</v>
+        <v>0.06060606060606061</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02209944751381215</v>
+        <v>0.0303030303030303</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.8085106382978723</v>
+        <v>0.8070175438596491</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1914893617021277</v>
+        <v>0.1754385964912281</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>0.01754385964912281</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02926829268292683</v>
+        <v>0.03153153153153153</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1268292682926829</v>
+        <v>0.1261261261261261</v>
       </c>
       <c r="I15">
-        <v>0.06829268292682927</v>
+        <v>0.07207207207207207</v>
       </c>
       <c r="J15">
-        <v>0.3463414634146341</v>
+        <v>0.3468468468468469</v>
       </c>
       <c r="K15">
-        <v>0.06341463414634146</v>
+        <v>0.05855855855855856</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.00975609756097561</v>
+        <v>0.009009009009009009</v>
       </c>
       <c r="N15">
-        <v>0.004878048780487805</v>
+        <v>0.004504504504504504</v>
       </c>
       <c r="O15">
-        <v>0.08780487804878048</v>
+        <v>0.08558558558558559</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2634146341463415</v>
+        <v>0.2657657657657658</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.05286343612334802</v>
+        <v>0.04743083003952569</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1277533039647577</v>
+        <v>0.1343873517786561</v>
       </c>
       <c r="I16">
-        <v>0.1277533039647577</v>
+        <v>0.1225296442687747</v>
       </c>
       <c r="J16">
-        <v>0.4361233480176211</v>
+        <v>0.4268774703557312</v>
       </c>
       <c r="K16">
-        <v>0.0881057268722467</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.03083700440528634</v>
+        <v>0.03557312252964427</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.02643171806167401</v>
+        <v>0.03162055335968379</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1101321585903084</v>
+        <v>0.1146245059288538</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01943844492440605</v>
+        <v>0.01934235976789168</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.142548596112311</v>
+        <v>0.1411992263056093</v>
       </c>
       <c r="I17">
-        <v>0.0734341252699784</v>
+        <v>0.0735009671179884</v>
       </c>
       <c r="J17">
-        <v>0.4514038876889849</v>
+        <v>0.4526112185686654</v>
       </c>
       <c r="K17">
-        <v>0.09719222462203024</v>
+        <v>0.09864603481624758</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02591792656587473</v>
+        <v>0.02707930367504836</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.05399568034557235</v>
+        <v>0.05609284332688588</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1360691144708423</v>
+        <v>0.1315280464216634</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01704545454545454</v>
+        <v>0.01477832512315271</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1590909090909091</v>
+        <v>0.1625615763546798</v>
       </c>
       <c r="I18">
-        <v>0.06818181818181818</v>
+        <v>0.08374384236453201</v>
       </c>
       <c r="J18">
-        <v>0.4602272727272727</v>
+        <v>0.458128078817734</v>
       </c>
       <c r="K18">
-        <v>0.1022727272727273</v>
+        <v>0.09359605911330049</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01136363636363636</v>
+        <v>0.01477832512315271</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.07386363636363637</v>
+        <v>0.06896551724137931</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1079545454545455</v>
+        <v>0.103448275862069</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02625102543068089</v>
+        <v>0.02366863905325444</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2001640689089418</v>
+        <v>0.2026627218934911</v>
       </c>
       <c r="I19">
-        <v>0.08531583264971287</v>
+        <v>0.08431952662721894</v>
       </c>
       <c r="J19">
-        <v>0.3748974569319114</v>
+        <v>0.3764792899408284</v>
       </c>
       <c r="K19">
-        <v>0.1148482362592289</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01968826907301066</v>
+        <v>0.02144970414201183</v>
       </c>
       <c r="N19">
-        <v>0.0008203445447087777</v>
+        <v>0.0007396449704142012</v>
       </c>
       <c r="O19">
-        <v>0.06808859721082855</v>
+        <v>0.06360946745562131</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1099261689909762</v>
+        <v>0.1116863905325444</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/UIW_B.xlsx
+++ b/team_specific_matrix/UIW_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2044887780548628</v>
+        <v>0.2004662004662005</v>
       </c>
       <c r="C2">
-        <v>0.5461346633416458</v>
+        <v>0.5524475524475524</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.002493765586034913</v>
+        <v>0.004662004662004662</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1471321695760598</v>
+        <v>0.1445221445221445</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09975062344139651</v>
+        <v>0.0979020979020979</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.004504504504504504</v>
+        <v>0.004149377593360996</v>
       </c>
       <c r="C3">
-        <v>0.004504504504504504</v>
+        <v>0.008298755186721992</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02702702702702703</v>
+        <v>0.02489626556016597</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7342342342342343</v>
+        <v>0.7302904564315352</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2297297297297297</v>
+        <v>0.2323651452282158</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.08</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.72</v>
+        <v>0.7115384615384616</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2</v>
+        <v>0.2115384615384615</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06018518518518518</v>
+        <v>0.05603448275862069</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01388888888888889</v>
+        <v>0.01293103448275862</v>
       </c>
       <c r="E6">
-        <v>0.004629629629629629</v>
+        <v>0.004310344827586207</v>
       </c>
       <c r="F6">
-        <v>0.04629629629629629</v>
+        <v>0.04310344827586207</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3055555555555556</v>
+        <v>0.3103448275862069</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.03240740740740741</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.162037037037037</v>
+        <v>0.1637931034482759</v>
       </c>
       <c r="R6">
-        <v>0.05555555555555555</v>
+        <v>0.0603448275862069</v>
       </c>
       <c r="S6">
-        <v>0.3194444444444444</v>
+        <v>0.3146551724137931</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1525423728813559</v>
+        <v>0.144578313253012</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.00423728813559322</v>
+        <v>0.004016064257028112</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.02966101694915254</v>
+        <v>0.02811244979919679</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1313559322033898</v>
+        <v>0.1325301204819277</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01694915254237288</v>
+        <v>0.01606425702811245</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1949152542372881</v>
+        <v>0.1887550200803213</v>
       </c>
       <c r="R7">
-        <v>0.06779661016949153</v>
+        <v>0.06425702811244979</v>
       </c>
       <c r="S7">
-        <v>0.4025423728813559</v>
+        <v>0.4216867469879518</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1201814058956916</v>
+        <v>0.1217391304347826</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01360544217687075</v>
+        <v>0.01304347826086956</v>
       </c>
       <c r="E8">
-        <v>0.006802721088435374</v>
+        <v>0.006521739130434782</v>
       </c>
       <c r="F8">
-        <v>0.04308390022675737</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1156462585034014</v>
+        <v>0.1152173913043478</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02040816326530612</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2222222222222222</v>
+        <v>0.2173913043478261</v>
       </c>
       <c r="R8">
-        <v>0.09070294784580499</v>
+        <v>0.08913043478260869</v>
       </c>
       <c r="S8">
-        <v>0.3673469387755102</v>
+        <v>0.3717391304347826</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1388888888888889</v>
+        <v>0.1397379912663755</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02314814814814815</v>
+        <v>0.02183406113537118</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.06018518518518518</v>
+        <v>0.05676855895196507</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.125</v>
+        <v>0.1222707423580786</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01388888888888889</v>
+        <v>0.01310043668122271</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1944444444444444</v>
+        <v>0.1965065502183406</v>
       </c>
       <c r="R9">
-        <v>0.08333333333333333</v>
+        <v>0.08733624454148471</v>
       </c>
       <c r="S9">
-        <v>0.3611111111111111</v>
+        <v>0.3624454148471616</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1277932960893855</v>
+        <v>0.1304067140090381</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0244413407821229</v>
+        <v>0.02388637830858618</v>
       </c>
       <c r="E10">
-        <v>0.0006983240223463687</v>
+        <v>0.0006455777921239509</v>
       </c>
       <c r="F10">
-        <v>0.05446927374301676</v>
+        <v>0.05551969012265978</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1215083798882682</v>
+        <v>0.1220142027114267</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.0111731843575419</v>
+        <v>0.01291155584247902</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2129888268156425</v>
+        <v>0.2098127824402841</v>
       </c>
       <c r="R10">
-        <v>0.08310055865921788</v>
+        <v>0.08327953518398967</v>
       </c>
       <c r="S10">
-        <v>0.3638268156424581</v>
+        <v>0.3615235635894125</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1457725947521866</v>
+        <v>0.1486486486486487</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07580174927113703</v>
+        <v>0.08108108108108109</v>
       </c>
       <c r="K11">
-        <v>0.2128279883381924</v>
+        <v>0.2162162162162162</v>
       </c>
       <c r="L11">
-        <v>0.5393586005830904</v>
+        <v>0.5297297297297298</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02623906705539359</v>
+        <v>0.02432432432432433</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7323232323232324</v>
+        <v>0.7294685990338164</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1565656565656566</v>
+        <v>0.1642512077294686</v>
       </c>
       <c r="K12">
-        <v>0.0202020202020202</v>
+        <v>0.01932367149758454</v>
       </c>
       <c r="L12">
-        <v>0.06060606060606061</v>
+        <v>0.05797101449275362</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.0303030303030303</v>
+        <v>0.02898550724637681</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.8070175438596491</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1754385964912281</v>
+        <v>0.1724137931034483</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.01754385964912281</v>
+        <v>0.01724137931034483</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.03153153153153153</v>
+        <v>0.03319502074688797</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1261261261261261</v>
+        <v>0.1244813278008299</v>
       </c>
       <c r="I15">
-        <v>0.07207207207207207</v>
+        <v>0.07053941908713693</v>
       </c>
       <c r="J15">
-        <v>0.3468468468468469</v>
+        <v>0.3526970954356847</v>
       </c>
       <c r="K15">
-        <v>0.05855855855855856</v>
+        <v>0.05809128630705394</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.009009009009009009</v>
+        <v>0.008298755186721992</v>
       </c>
       <c r="N15">
-        <v>0.004504504504504504</v>
+        <v>0.004149377593360996</v>
       </c>
       <c r="O15">
-        <v>0.08558558558558559</v>
+        <v>0.07883817427385892</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2657657657657658</v>
+        <v>0.2697095435684647</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.04743083003952569</v>
+        <v>0.04444444444444445</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1343873517786561</v>
+        <v>0.137037037037037</v>
       </c>
       <c r="I16">
-        <v>0.1225296442687747</v>
+        <v>0.1222222222222222</v>
       </c>
       <c r="J16">
-        <v>0.4268774703557312</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="K16">
-        <v>0.08695652173913043</v>
+        <v>0.08518518518518518</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.03557312252964427</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.03162055335968379</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1146245059288538</v>
+        <v>0.1185185185185185</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01934235976789168</v>
+        <v>0.01834862385321101</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1411992263056093</v>
+        <v>0.1357798165137615</v>
       </c>
       <c r="I17">
-        <v>0.0735009671179884</v>
+        <v>0.07155963302752294</v>
       </c>
       <c r="J17">
-        <v>0.4526112185686654</v>
+        <v>0.4660550458715597</v>
       </c>
       <c r="K17">
-        <v>0.09864603481624758</v>
+        <v>0.09724770642201835</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02707930367504836</v>
+        <v>0.02568807339449541</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.001834862385321101</v>
       </c>
       <c r="O17">
-        <v>0.05609284332688588</v>
+        <v>0.05321100917431193</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1315280464216634</v>
+        <v>0.1302752293577982</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01477832512315271</v>
+        <v>0.01834862385321101</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1625615763546798</v>
+        <v>0.1559633027522936</v>
       </c>
       <c r="I18">
-        <v>0.08374384236453201</v>
+        <v>0.09174311926605505</v>
       </c>
       <c r="J18">
-        <v>0.458128078817734</v>
+        <v>0.4541284403669725</v>
       </c>
       <c r="K18">
-        <v>0.09359605911330049</v>
+        <v>0.09174311926605505</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01477832512315271</v>
+        <v>0.01376146788990826</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.06896551724137931</v>
+        <v>0.06880733944954129</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.103448275862069</v>
+        <v>0.1055045871559633</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02366863905325444</v>
+        <v>0.02341597796143251</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2026627218934911</v>
+        <v>0.196969696969697</v>
       </c>
       <c r="I19">
-        <v>0.08431952662721894</v>
+        <v>0.08264462809917356</v>
       </c>
       <c r="J19">
-        <v>0.3764792899408284</v>
+        <v>0.3801652892561984</v>
       </c>
       <c r="K19">
-        <v>0.1153846153846154</v>
+        <v>0.1170798898071625</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02144970414201183</v>
+        <v>0.02134986225895317</v>
       </c>
       <c r="N19">
-        <v>0.0007396449704142012</v>
+        <v>0.0006887052341597796</v>
       </c>
       <c r="O19">
-        <v>0.06360946745562131</v>
+        <v>0.06473829201101929</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1116863905325444</v>
+        <v>0.1129476584022039</v>
       </c>
     </row>
   </sheetData>
